--- a/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,95</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,21; 10,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,21; 10,33</t>
         </is>
       </c>
     </row>
@@ -692,17 +692,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-25,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,58%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,78; 11,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,78; 11,78</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,97</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 30,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 35,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 30,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 35,98</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,91%</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 44,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 56,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 44,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 56,2</t>
         </is>
       </c>
     </row>
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 13,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 13,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,95</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 15,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 15,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,47</t>
         </is>
       </c>
     </row>
@@ -1240,17 +1240,17 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>-6,7</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,7</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,08; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,7%</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,08; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,37</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,67; 8,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,67; 8,27</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,77%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,24; 9,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,24; 9,02</t>
         </is>
       </c>
     </row>
@@ -1547,22 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 6,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,12</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 6,6</t>
         </is>
       </c>
     </row>
@@ -1623,22 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,25%</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,11; 6,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,11; 6,67</t>
         </is>
       </c>
     </row>
@@ -1703,22 +1703,22 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,21</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 22,3</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 24,56</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 22,3</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 24,56</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 30,69</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 32,91</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 30,69</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 32,91</t>
         </is>
       </c>
     </row>
@@ -1859,22 +1859,22 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
     </row>
@@ -1897,22 +1897,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 10,98</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,19</t>
         </is>
       </c>
     </row>
@@ -1935,22 +1935,22 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 12,67</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 10,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 13,5</t>
+          <t>-12,39; 7,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 13,5</t>
+          <t>-12,39; 7,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,43</t>
+          <t>-12,86; 8,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,43</t>
+          <t>-12,86; 8,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,53</t>
+          <t>0,0; 27,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 10,33</t>
+          <t>-66,79; 14,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,53</t>
+          <t>0,0; 27,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 10,33</t>
+          <t>-66,79; 14,66</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,05</t>
+          <t>0,0; 37,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,78; 11,78</t>
+          <t>-66,96; 18,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,05</t>
+          <t>0,0; 37,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,78; 11,78</t>
+          <t>-66,96; 18,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 30,05</t>
+          <t>1,03; 29,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 35,98</t>
+          <t>8,72; 35,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 30,05</t>
+          <t>1,03; 29,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 35,98</t>
+          <t>8,72; 35,74</t>
         </is>
       </c>
     </row>
@@ -881,29 +881,29 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 44,31</t>
+          <t>1,45; 43,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 56,2</t>
+          <t>9,56; 55,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 44,31</t>
+          <t>1,45; 43,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 56,2</t>
+          <t>9,56; 55,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 7,41</t>
+          <t>-12,46; 7,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,95</t>
+          <t>0,0; 19,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 7,41</t>
+          <t>-12,46; 7,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,95</t>
+          <t>0,0; 19,15</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 8,03</t>
+          <t>-12,96; 8,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,47</t>
+          <t>0,0; 23,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 8,03</t>
+          <t>-12,96; 8,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,47</t>
+          <t>0,0; 23,69</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 0,0</t>
+          <t>-27,64; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 0,0</t>
+          <t>-27,64; 0,0</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 0,0</t>
+          <t>-27,64; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 0,0</t>
+          <t>-27,64; 0,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,96</t>
+          <t>0,0; 22,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-51,67; 8,27</t>
+          <t>-52,46; 8,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,96</t>
+          <t>0,0; 22,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-51,67; 8,27</t>
+          <t>-52,46; 8,21</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,52</t>
+          <t>0,0; 28,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 9,02</t>
+          <t>-55,0; 8,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,52</t>
+          <t>0,0; 28,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 9,02</t>
+          <t>-55,0; 8,92</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,12</t>
+          <t>0,0; 15,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 6,6</t>
+          <t>-10,9; 6,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,12</t>
+          <t>0,0; 15,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 6,6</t>
+          <t>-10,9; 6,6</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,81</t>
+          <t>0,0; 18,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 6,67</t>
+          <t>-11,68; 6,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,81</t>
+          <t>0,0; 18,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 6,67</t>
+          <t>-11,68; 6,78</t>
         </is>
       </c>
     </row>
@@ -1741,22 +1741,22 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 22,3</t>
+          <t>-0,56; 21,49</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,89; 24,56</t>
+          <t>1,2; 22,9</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 22,3</t>
+          <t>-0,56; 21,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,89; 24,56</t>
+          <t>1,2; 22,9</t>
         </is>
       </c>
     </row>
@@ -1817,22 +1817,22 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 30,69</t>
+          <t>-0,31; 29,29</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2,04; 32,91</t>
+          <t>1,44; 30,62</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 30,69</t>
+          <t>-0,31; 29,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,04; 32,91</t>
+          <t>1,44; 30,62</t>
         </is>
       </c>
     </row>
@@ -1897,22 +1897,22 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,19</t>
+          <t>-0,77; 8,83</t>
         </is>
       </c>
     </row>
@@ -1973,22 +1973,22 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,35</t>
+          <t>-0,82; 9,97</t>
         </is>
       </c>
     </row>
